--- a/experiment/linear/ex9_1_1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9_1_1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,61 +66,67 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>1.4164683088845837 - 0.4882369222252976y_1 + 0.49986161084970937y_2</t>
-  </si>
-  <si>
-    <t>-1.4164683088845837</t>
+    <t>1.8749999999999998 - 0.5y_1 + 0.5y_2</t>
+  </si>
+  <si>
+    <t>-1.8749999999999998</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.35</t>
+    <t>0.78</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-1.4164683088845837 + 0.4882369222252976y_1 - 0.49986161084970937y_2</t>
-  </si>
-  <si>
-    <t>-2.5835316911154163</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>20.584306670357044 - 2x - 1.51120952117354y_1 + 1.5471907002491005y_2</t>
-  </si>
-  <si>
-    <t>-36.584306670357044</t>
+    <t>-1.875 + 0.5y_1 - 0.5y_2</t>
+  </si>
+  <si>
+    <t>-2.125</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>17.725 - 2x - 1.5y_1 + 1.5y_2</t>
+  </si>
+  <si>
+    <t>-33.725</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>-67.01646830888458 + 8x + 0.4882369222252976y_1 - 0.49986161084970937y_2</t>
-  </si>
-  <si>
-    <t>18.21646830888458</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>-79.70060975609758 + 8x - 2.9146341463414642y_1 - 3.9146341463414642y_2</t>
+  </si>
+  <si>
+    <t>-31.70060975609757</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>4.967063382230833 - 2x - 0.9764738444505952y_1 + 0.9997232216994187y_2</t>
-  </si>
-  <si>
-    <t>-7.032936617769167</t>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>-4.6000000000000005</t>
+  </si>
+  <si>
+    <t>-8.4</t>
+  </si>
+  <si>
+    <t>8.15 - 2x - y_1 + y_2</t>
+  </si>
+  <si>
+    <t>-3.849999999999999</t>
+  </si>
+  <si>
+    <t>0.21</t>
   </si>
   <si>
     <t>x</t>
@@ -132,34 +138,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.6270357044007748</t>
-  </si>
-  <si>
-    <t>-0.6419651259341269</t>
+    <t>4.834146341463415</t>
+  </si>
+  <si>
+    <t>1.834146341463415</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>-2.0</t>
+    <t>37.800000000000004</t>
+  </si>
+  <si>
+    <t>-10.407317073170738</t>
+  </si>
+  <si>
+    <t>-20.00731707317074</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -670,24 +676,24 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -711,24 +717,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -746,17 +752,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -774,22 +780,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -807,17 +813,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
